--- a/level-2/uri/phase-2-6/uri-phase-2-6.xlsx
+++ b/level-2/uri/phase-2-6/uri-phase-2-6.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53FEEFE-A26B-43B7-905F-8C5AAE1030D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14353154-D7BA-497D-8F8C-6B99E7F78ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,24 @@
     <sheet name="uri level 2-6" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="138">
   <si>
     <t>Problem Link</t>
   </si>
@@ -333,18 +346,6 @@
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/problems/view/1334</t>
-  </si>
-  <si>
-    <t>https://www.beecrowd.com.br/judge/en/problems/view/2225</t>
-  </si>
-  <si>
-    <t>https://www.beecrowd.com.br/judge/en/problems/view/1489</t>
-  </si>
-  <si>
-    <t>https://www.beecrowd.com.br/judge/en/problems/view/2652</t>
-  </si>
-  <si>
-    <t>https://www.beecrowd.com.br/judge/en/problems/view/1562</t>
   </si>
   <si>
     <t>Paradigms</t>
@@ -681,14 +682,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill>
@@ -1205,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1272,36 +1266,36 @@
       <c r="A3" s="20"/>
       <c r="B3" s="16"/>
       <c r="C3" s="4" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C184)</f>
+        <f>AVERAGE(C4:C180)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D180)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E180)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F180)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G180)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H180)</f>
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <f>COUNTA(I4:I834)</f>
+        <f>COUNTA(I4:I830)</f>
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <f>COUNTA(J4:J954)</f>
-        <v>125</v>
+        <f>COUNTA(J4:J950)</f>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1317,7 +1311,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H17" si="1">SUM(C4:G4)</f>
+        <f>SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="9"/>
@@ -1338,7 +1332,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="9"/>
@@ -1359,7 +1353,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C6:G6)</f>
         <v>0</v>
       </c>
       <c r="I6" s="9"/>
@@ -1380,7 +1374,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C7:G7)</f>
         <v>0</v>
       </c>
       <c r="I7" s="9"/>
@@ -1401,7 +1395,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="9"/>
@@ -1422,7 +1416,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C9:G9)</f>
         <v>0</v>
       </c>
       <c r="I9" s="9"/>
@@ -1443,7 +1437,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C10:G10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="9"/>
@@ -1464,7 +1458,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C11:G11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="9"/>
@@ -1485,7 +1479,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C12:G12)</f>
         <v>0</v>
       </c>
       <c r="I12" s="9"/>
@@ -1506,7 +1500,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C13:G13)</f>
         <v>0</v>
       </c>
       <c r="I13" s="9"/>
@@ -1527,7 +1521,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C14:G14)</f>
         <v>0</v>
       </c>
       <c r="I14" s="9"/>
@@ -1548,7 +1542,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C15:G15)</f>
         <v>0</v>
       </c>
       <c r="I15" s="9"/>
@@ -1569,7 +1563,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C16:G16)</f>
         <v>0</v>
       </c>
       <c r="J16" s="13" t="s">
@@ -1589,7 +1583,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
       <c r="I17" s="9"/>
@@ -1610,7 +1604,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="8">
-        <f t="shared" ref="H18:H71" si="2">SUM(C18:G18)</f>
+        <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
       <c r="I18" s="9"/>
@@ -1631,7 +1625,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C19:G19)</f>
         <v>0</v>
       </c>
       <c r="I19" s="9"/>
@@ -1652,7 +1646,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C20:G20)</f>
         <v>0</v>
       </c>
       <c r="I20" s="9"/>
@@ -1673,7 +1667,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
       <c r="I21" s="9"/>
@@ -1694,7 +1688,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C22:G22)</f>
         <v>0</v>
       </c>
       <c r="I22" s="9"/>
@@ -1715,7 +1709,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
       <c r="I23" s="9"/>
@@ -1736,7 +1730,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C24:G24)</f>
         <v>0</v>
       </c>
       <c r="I24" s="9"/>
@@ -1757,7 +1751,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C25:G25)</f>
         <v>0</v>
       </c>
       <c r="I25" s="9"/>
@@ -1778,7 +1772,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C26:G26)</f>
         <v>0</v>
       </c>
       <c r="I26" s="9"/>
@@ -1799,7 +1793,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C27:G27)</f>
         <v>0</v>
       </c>
       <c r="I27" s="9"/>
@@ -1820,7 +1814,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C28:G28)</f>
         <v>0</v>
       </c>
       <c r="I28" s="9"/>
@@ -1841,7 +1835,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C29:G29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="9"/>
@@ -1862,7 +1856,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C30:G30)</f>
         <v>0</v>
       </c>
       <c r="I30" s="9"/>
@@ -1883,7 +1877,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="8">
-        <f t="shared" ref="H31:H51" si="3">SUM(C31:G31)</f>
+        <f>SUM(C31:G31)</f>
         <v>0</v>
       </c>
       <c r="I31" s="9"/>
@@ -1904,7 +1898,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C32:G32)</f>
         <v>0</v>
       </c>
       <c r="I32" s="9"/>
@@ -1925,7 +1919,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C33:G33)</f>
         <v>0</v>
       </c>
       <c r="I33" s="9"/>
@@ -1946,7 +1940,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C34:G34)</f>
         <v>0</v>
       </c>
       <c r="I34" s="9"/>
@@ -1967,7 +1961,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C35:G35)</f>
         <v>0</v>
       </c>
       <c r="I35" s="9"/>
@@ -1988,7 +1982,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C36:G36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="9"/>
@@ -2009,7 +2003,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C37:G37)</f>
         <v>0</v>
       </c>
       <c r="I37" s="9"/>
@@ -2030,7 +2024,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C38:G38)</f>
         <v>0</v>
       </c>
       <c r="I38" s="9"/>
@@ -2051,7 +2045,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C39:G39)</f>
         <v>0</v>
       </c>
       <c r="I39" s="9"/>
@@ -2072,7 +2066,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C40:G40)</f>
         <v>0</v>
       </c>
       <c r="I40" s="9"/>
@@ -2093,7 +2087,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C41:G41)</f>
         <v>0</v>
       </c>
       <c r="I41" s="9"/>
@@ -2114,7 +2108,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C42:G42)</f>
         <v>0</v>
       </c>
       <c r="I42" s="9"/>
@@ -2135,7 +2129,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C43:G43)</f>
         <v>0</v>
       </c>
       <c r="I43" s="9"/>
@@ -2156,7 +2150,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C44:G44)</f>
         <v>0</v>
       </c>
       <c r="I44" s="9"/>
@@ -2177,7 +2171,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C45:G45)</f>
         <v>0</v>
       </c>
       <c r="I45" s="9"/>
@@ -2198,7 +2192,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C46:G46)</f>
         <v>0</v>
       </c>
       <c r="I46" s="9"/>
@@ -2219,7 +2213,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C47:G47)</f>
         <v>0</v>
       </c>
       <c r="I47" s="9"/>
@@ -2240,7 +2234,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C48:G48)</f>
         <v>0</v>
       </c>
       <c r="I48" s="9"/>
@@ -2261,7 +2255,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C49:G49)</f>
         <v>0</v>
       </c>
       <c r="I49" s="9"/>
@@ -2282,7 +2276,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C50:G50)</f>
         <v>0</v>
       </c>
       <c r="I50" s="9"/>
@@ -2303,7 +2297,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(C51:G51)</f>
         <v>0</v>
       </c>
       <c r="I51" s="9"/>
@@ -2324,7 +2318,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C52:G52)</f>
         <v>0</v>
       </c>
       <c r="I52" s="9"/>
@@ -2345,7 +2339,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C53:G53)</f>
         <v>0</v>
       </c>
       <c r="I53" s="9"/>
@@ -2366,7 +2360,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C54:G54)</f>
         <v>0</v>
       </c>
       <c r="I54" s="9"/>
@@ -2387,7 +2381,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C55:G55)</f>
         <v>0</v>
       </c>
       <c r="I55" s="9"/>
@@ -2408,7 +2402,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C56:G56)</f>
         <v>0</v>
       </c>
       <c r="I56" s="9"/>
@@ -2429,7 +2423,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C57:G57)</f>
         <v>0</v>
       </c>
       <c r="I57" s="9"/>
@@ -2450,7 +2444,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C58:G58)</f>
         <v>0</v>
       </c>
       <c r="I58" s="9"/>
@@ -2471,7 +2465,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C59:G59)</f>
         <v>0</v>
       </c>
       <c r="I59" s="9"/>
@@ -2492,7 +2486,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C60:G60)</f>
         <v>0</v>
       </c>
       <c r="I60" s="9"/>
@@ -2513,7 +2507,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C61:G61)</f>
         <v>0</v>
       </c>
       <c r="I61" s="9"/>
@@ -2534,7 +2528,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C62:G62)</f>
         <v>0</v>
       </c>
       <c r="I62" s="9"/>
@@ -2555,7 +2549,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C63:G63)</f>
         <v>0</v>
       </c>
       <c r="I63" s="9"/>
@@ -2576,7 +2570,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C64:G64)</f>
         <v>0</v>
       </c>
       <c r="I64" s="9"/>
@@ -2597,7 +2591,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C65:G65)</f>
         <v>0</v>
       </c>
       <c r="I65" s="9"/>
@@ -2618,7 +2612,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C66:G66)</f>
         <v>0</v>
       </c>
       <c r="I66" s="9"/>
@@ -2639,7 +2633,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C67:G67)</f>
         <v>0</v>
       </c>
       <c r="I67" s="9"/>
@@ -2660,7 +2654,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C68:G68)</f>
         <v>0</v>
       </c>
       <c r="I68" s="9"/>
@@ -2681,7 +2675,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C69:G69)</f>
         <v>0</v>
       </c>
       <c r="I69" s="9"/>
@@ -2702,7 +2696,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C70:G70)</f>
         <v>0</v>
       </c>
       <c r="I70" s="9"/>
@@ -2723,7 +2717,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C71:G71)</f>
         <v>0</v>
       </c>
       <c r="I71" s="9"/>
@@ -2744,7 +2738,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="8">
-        <f t="shared" ref="H72:H123" si="4">SUM(C72:G72)</f>
+        <f>SUM(C72:G72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="9"/>
@@ -2765,7 +2759,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C73:G73)</f>
         <v>0</v>
       </c>
       <c r="I73" s="9"/>
@@ -2786,7 +2780,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C74:G74)</f>
         <v>0</v>
       </c>
       <c r="J74" s="13" t="s">
@@ -2806,7 +2800,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C75:G75)</f>
         <v>0</v>
       </c>
       <c r="J75" s="13" t="s">
@@ -2826,7 +2820,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C76:G76)</f>
         <v>0</v>
       </c>
       <c r="J76" s="13" t="s">
@@ -2846,7 +2840,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C77:G77)</f>
         <v>0</v>
       </c>
       <c r="J77" s="13" t="s">
@@ -2866,7 +2860,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C78:G78)</f>
         <v>0</v>
       </c>
       <c r="J78" s="13" t="s">
@@ -2886,7 +2880,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C79:G79)</f>
         <v>0</v>
       </c>
       <c r="J79" s="13" t="s">
@@ -2906,7 +2900,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C80:G80)</f>
         <v>0</v>
       </c>
       <c r="J80" s="13" t="s">
@@ -2926,7 +2920,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C81:G81)</f>
         <v>0</v>
       </c>
       <c r="J81" s="13" t="s">
@@ -2946,7 +2940,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C82:G82)</f>
         <v>0</v>
       </c>
       <c r="J82" s="13" t="s">
@@ -2966,7 +2960,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C83:G83)</f>
         <v>0</v>
       </c>
       <c r="J83" s="13" t="s">
@@ -2986,7 +2980,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C84:G84)</f>
         <v>0</v>
       </c>
       <c r="J84" s="13" t="s">
@@ -3006,7 +3000,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C85:G85)</f>
         <v>0</v>
       </c>
       <c r="J85" s="13" t="s">
@@ -3026,7 +3020,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C86:G86)</f>
         <v>0</v>
       </c>
       <c r="J86" s="13" t="s">
@@ -3046,7 +3040,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C87:G87)</f>
         <v>0</v>
       </c>
       <c r="J87" s="13" t="s">
@@ -3066,7 +3060,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C88:G88)</f>
         <v>0</v>
       </c>
       <c r="J88" s="13" t="s">
@@ -3086,7 +3080,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C89:G89)</f>
         <v>0</v>
       </c>
       <c r="J89" s="13" t="s">
@@ -3106,7 +3100,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C90:G90)</f>
         <v>0</v>
       </c>
       <c r="J90" s="14" t="s">
@@ -3126,7 +3120,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C91:G91)</f>
         <v>0</v>
       </c>
       <c r="J91" s="14" t="s">
@@ -3146,7 +3140,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C92:G92)</f>
         <v>0</v>
       </c>
       <c r="J92" s="14" t="s">
@@ -3166,7 +3160,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C93:G93)</f>
         <v>0</v>
       </c>
       <c r="J93" s="14" t="s">
@@ -3186,7 +3180,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C94:G94)</f>
         <v>0</v>
       </c>
       <c r="J94" s="14" t="s">
@@ -3195,10 +3189,10 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B95" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -3206,19 +3200,19 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C95:G95)</f>
         <v>0</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B96" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -3226,19 +3220,19 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C96:G96)</f>
         <v>0</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B97" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -3246,19 +3240,19 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C97:G97)</f>
         <v>0</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B98" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -3266,19 +3260,19 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C98:G98)</f>
         <v>0</v>
       </c>
       <c r="J98" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B99" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -3286,7 +3280,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C99:G99)</f>
         <v>0</v>
       </c>
       <c r="J99" s="14" t="s">
@@ -3295,10 +3289,10 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B100" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3306,7 +3300,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C100:G100)</f>
         <v>0</v>
       </c>
       <c r="J100" s="14" t="s">
@@ -3315,10 +3309,10 @@
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B101" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3326,7 +3320,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C101:G101)</f>
         <v>0</v>
       </c>
       <c r="J101" s="14" t="s">
@@ -3335,10 +3329,10 @@
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B102" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -3346,16 +3340,16 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="14" t="s">
+        <f>SUM(C102:G102)</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B103" s="11">
         <v>10</v>
@@ -3366,16 +3360,16 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="14" t="s">
+        <f>SUM(C103:G103)</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B104" s="11">
         <v>10</v>
@@ -3386,16 +3380,16 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="14" t="s">
+        <f>SUM(C104:G104)</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B105" s="11">
         <v>10</v>
@@ -3406,16 +3400,16 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="14" t="s">
+        <f>SUM(C105:G105)</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B106" s="11">
         <v>10</v>
@@ -3426,7 +3420,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C106:G106)</f>
         <v>0</v>
       </c>
       <c r="J106" s="13" t="s">
@@ -3435,7 +3429,7 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B107" s="11">
         <v>10</v>
@@ -3446,7 +3440,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C107:G107)</f>
         <v>0</v>
       </c>
       <c r="J107" s="13" t="s">
@@ -3455,7 +3449,7 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B108" s="11">
         <v>10</v>
@@ -3466,7 +3460,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C108:G108)</f>
         <v>0</v>
       </c>
       <c r="J108" s="13" t="s">
@@ -3475,7 +3469,7 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B109" s="11">
         <v>10</v>
@@ -3486,7 +3480,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C109:G109)</f>
         <v>0</v>
       </c>
       <c r="J109" s="13" t="s">
@@ -3495,7 +3489,7 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B110" s="11">
         <v>10</v>
@@ -3506,7 +3500,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C110:G110)</f>
         <v>0</v>
       </c>
       <c r="J110" s="13" t="s">
@@ -3515,7 +3509,7 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B111" s="11">
         <v>10</v>
@@ -3526,7 +3520,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C111:G111)</f>
         <v>0</v>
       </c>
       <c r="J111" s="13" t="s">
@@ -3535,7 +3529,7 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B112" s="11">
         <v>10</v>
@@ -3546,7 +3540,7 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C112:G112)</f>
         <v>0</v>
       </c>
       <c r="J112" s="13" t="s">
@@ -3555,7 +3549,7 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B113" s="11">
         <v>10</v>
@@ -3566,7 +3560,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C113:G113)</f>
         <v>0</v>
       </c>
       <c r="J113" s="13" t="s">
@@ -3575,7 +3569,7 @@
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B114" s="11">
         <v>10</v>
@@ -3586,7 +3580,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C114:G114)</f>
         <v>0</v>
       </c>
       <c r="J114" s="13" t="s">
@@ -3595,7 +3589,7 @@
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B115" s="11">
         <v>10</v>
@@ -3606,7 +3600,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C115:G115)</f>
         <v>0</v>
       </c>
       <c r="J115" s="13" t="s">
@@ -3615,7 +3609,7 @@
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B116" s="11">
         <v>10</v>
@@ -3626,7 +3620,7 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C116:G116)</f>
         <v>0</v>
       </c>
       <c r="J116" s="13" t="s">
@@ -3635,7 +3629,7 @@
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B117" s="11">
         <v>10</v>
@@ -3646,7 +3640,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C117:G117)</f>
         <v>0</v>
       </c>
       <c r="J117" s="13" t="s">
@@ -3655,7 +3649,7 @@
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B118" s="11">
         <v>10</v>
@@ -3666,7 +3660,7 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C118:G118)</f>
         <v>0</v>
       </c>
       <c r="J118" s="13" t="s">
@@ -3675,7 +3669,7 @@
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B119" s="11">
         <v>10</v>
@@ -3686,7 +3680,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(C119:G119)</f>
         <v>0</v>
       </c>
       <c r="J119" s="13" t="s">
@@ -3695,7 +3689,7 @@
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B120" s="11">
         <v>10</v>
@@ -3706,16 +3700,16 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="13" t="s">
-        <v>132</v>
+        <f>SUM(C120:G120)</f>
+        <v>0</v>
+      </c>
+      <c r="J120" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B121" s="11">
         <v>10</v>
@@ -3726,16 +3720,16 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="13" t="s">
-        <v>133</v>
+        <f>SUM(C121:G121)</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B122" s="11">
         <v>10</v>
@@ -3746,16 +3740,16 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="13" t="s">
-        <v>134</v>
+        <f>SUM(C122:G122)</f>
+        <v>0</v>
+      </c>
+      <c r="J122" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B123" s="11">
         <v>10</v>
@@ -3766,16 +3760,16 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="13" t="s">
-        <v>135</v>
+        <f>SUM(C123:G123)</f>
+        <v>0</v>
+      </c>
+      <c r="J123" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B124" s="11">
         <v>10</v>
@@ -3794,88 +3788,52 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B125" s="11">
-        <v>10</v>
-      </c>
+      <c r="A125" s="10"/>
+      <c r="B125" s="11"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
-      <c r="H125" s="8">
-        <f>SUM(C125:G125)</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="14" t="s">
-        <v>138</v>
-      </c>
+      <c r="H125" s="8"/>
+      <c r="J125" s="13"/>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B126" s="11">
-        <v>10</v>
-      </c>
+      <c r="A126" s="10"/>
+      <c r="B126" s="11"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
-      <c r="H126" s="8">
-        <f>SUM(C126:G126)</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="14" t="s">
-        <v>139</v>
-      </c>
+      <c r="H126" s="8"/>
+      <c r="J126" s="13"/>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B127" s="11">
-        <v>10</v>
-      </c>
+      <c r="A127" s="10"/>
+      <c r="B127" s="11"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
-      <c r="H127" s="8">
-        <f>SUM(C127:G127)</f>
-        <v>0</v>
-      </c>
-      <c r="J127" s="14" t="s">
-        <v>140</v>
-      </c>
+      <c r="H127" s="8"/>
+      <c r="J127" s="13"/>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B128" s="11">
-        <v>10</v>
-      </c>
+      <c r="A128" s="10"/>
+      <c r="B128" s="12"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
-      <c r="H128" s="8">
-        <f>SUM(C128:G128)</f>
-        <v>0</v>
-      </c>
-      <c r="J128" s="14" t="s">
-        <v>141</v>
-      </c>
+      <c r="H128" s="8"/>
+      <c r="J128" s="13"/>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
-      <c r="B129" s="11"/>
+      <c r="B129" s="12"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -3886,7 +3844,7 @@
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
-      <c r="B130" s="11"/>
+      <c r="B130" s="12"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -3908,7 +3866,7 @@
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
-      <c r="B132" s="12"/>
+      <c r="B132" s="11"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -3919,7 +3877,7 @@
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
-      <c r="B133" s="12"/>
+      <c r="B133" s="11"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -3930,7 +3888,7 @@
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
-      <c r="B134" s="12"/>
+      <c r="B134" s="11"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -3974,7 +3932,7 @@
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
-      <c r="B138" s="11"/>
+      <c r="B138" s="12"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -3985,7 +3943,7 @@
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
-      <c r="B139" s="11"/>
+      <c r="B139" s="12"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -4018,7 +3976,7 @@
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
-      <c r="B142" s="12"/>
+      <c r="B142" s="11"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -4029,7 +3987,7 @@
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
-      <c r="B143" s="12"/>
+      <c r="B143" s="11"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4040,7 +3998,7 @@
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
-      <c r="B144" s="11"/>
+      <c r="B144" s="12"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4051,7 +4009,7 @@
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
-      <c r="B145" s="11"/>
+      <c r="B145" s="12"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4084,7 +4042,7 @@
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
-      <c r="B148" s="12"/>
+      <c r="B148" s="11"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -4095,7 +4053,7 @@
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
-      <c r="B149" s="12"/>
+      <c r="B149" s="11"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -4139,7 +4097,7 @@
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
-      <c r="B153" s="11"/>
+      <c r="B153" s="12"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -4150,7 +4108,7 @@
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
-      <c r="B154" s="11"/>
+      <c r="B154" s="12"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -4183,7 +4141,7 @@
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
-      <c r="B157" s="12"/>
+      <c r="B157" s="11"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -4194,7 +4152,7 @@
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
-      <c r="B158" s="12"/>
+      <c r="B158" s="11"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -4205,7 +4163,7 @@
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="B159" s="11"/>
+      <c r="B159" s="12"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -4249,7 +4207,7 @@
     </row>
     <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-      <c r="B163" s="12"/>
+      <c r="B163" s="11"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -4260,7 +4218,7 @@
     </row>
     <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
-      <c r="B164" s="11"/>
+      <c r="B164" s="12"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -4304,7 +4262,7 @@
     </row>
     <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
-      <c r="B168" s="12"/>
+      <c r="B168" s="11"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -4315,7 +4273,7 @@
     </row>
     <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
-      <c r="B169" s="11"/>
+      <c r="B169" s="12"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -4326,7 +4284,7 @@
     </row>
     <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
-      <c r="B170" s="11"/>
+      <c r="B170" s="12"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -4359,7 +4317,7 @@
     </row>
     <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
-      <c r="B173" s="12"/>
+      <c r="B173" s="11"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -4370,7 +4328,7 @@
     </row>
     <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
-      <c r="B174" s="12"/>
+      <c r="B174" s="11"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -4380,50 +4338,38 @@
       <c r="J174" s="13"/>
     </row>
     <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="10"/>
-      <c r="B175" s="11"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="8"/>
-      <c r="J175" s="13"/>
     </row>
     <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="10"/>
-      <c r="B176" s="11"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="8"/>
-      <c r="J176" s="13"/>
-    </row>
-    <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="10"/>
-      <c r="B177" s="11"/>
+    </row>
+    <row r="177" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="8"/>
-      <c r="J177" s="13"/>
-    </row>
-    <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="10"/>
-      <c r="B178" s="11"/>
+    </row>
+    <row r="178" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
       <c r="H178" s="8"/>
-      <c r="J178" s="13"/>
-    </row>
-    <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -4431,45 +4377,13 @@
       <c r="G179" s="5"/>
       <c r="H179" s="8"/>
     </row>
-    <row r="180" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="8"/>
-    </row>
-    <row r="181" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="8"/>
-    </row>
-    <row r="182" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="8"/>
-    </row>
-    <row r="183" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="8"/>
-    </row>
-    <row r="184" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4485,76 +4399,76 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1 A1 I24:I26">
-    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J129">
+  <conditionalFormatting sqref="J125">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J148">
+  <conditionalFormatting sqref="J144">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J137">
+  <conditionalFormatting sqref="J133">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J139">
+  <conditionalFormatting sqref="J135">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J163:J168">
+  <conditionalFormatting sqref="J159:J164">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J152">
+  <conditionalFormatting sqref="J148">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J154">
+  <conditionalFormatting sqref="J150">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J177">
+  <conditionalFormatting sqref="J173">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -4604,12 +4518,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J118:J123">
+  <conditionalFormatting sqref="J114:J119">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J109">
+  <conditionalFormatting sqref="J105">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/level-2/uri/phase-2-6/uri-phase-2-6.xlsx
+++ b/level-2/uri/phase-2-6/uri-phase-2-6.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14353154-D7BA-497D-8F8C-6B99E7F78ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF484CA-6C93-485D-B9E7-9F321C43F8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="uri level 2-6" sheetId="14" r:id="rId1"/>
+    <sheet name="uri 2-6" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="141">
   <si>
     <t>Problem Link</t>
   </si>
@@ -138,12 +138,6 @@
     <t>https://www.beecrowd.com.br/judge/en/problems/view/2669</t>
   </si>
   <si>
-    <t>https://www.beecrowd.com.br/judge/en/problems/view/1386</t>
-  </si>
-  <si>
-    <t>https://www.beecrowd.com.br/judge/en/problems/view/1335</t>
-  </si>
-  <si>
     <t>https://www.beecrowd.com.br/judge/en/problems/view/1853</t>
   </si>
   <si>
@@ -442,6 +436,21 @@
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/problems/view/2045</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/problems/view/1777</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/problems/view/1687</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/problems/view/1412</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/problems/view/2934</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/problems/view/1892</t>
   </si>
 </sst>
 </file>
@@ -682,7 +691,63 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1199,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J180"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1266,36 +1331,36 @@
       <c r="A3" s="20"/>
       <c r="B3" s="16"/>
       <c r="C3" s="4" t="e">
-        <f>AVERAGE(C4:C180)</f>
+        <f>AVERAGE(C4:C183)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="4" t="e">
-        <f>AVERAGE(D4:D180)</f>
+        <f>AVERAGE(D4:D183)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="4" t="e">
-        <f>AVERAGE(E4:E180)</f>
+        <f>AVERAGE(E4:E183)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="4" t="e">
-        <f>AVERAGE(F4:F180)</f>
+        <f>AVERAGE(F4:F183)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="4" t="e">
-        <f>AVERAGE(G4:G180)</f>
+        <f>AVERAGE(G4:G183)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="4">
-        <f>AVERAGE(H4:H180)</f>
+        <f>AVERAGE(H4:H183)</f>
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <f>COUNTA(I4:I830)</f>
+        <f>COUNTA(I4:I833)</f>
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <f>COUNTA(J4:J950)</f>
-        <v>121</v>
+        <f>COUNTA(J4:J833)</f>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1824,7 +1889,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B29" s="11">
         <v>10</v>
@@ -1839,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="I29" s="9"/>
-      <c r="J29" s="13" t="s">
-        <v>37</v>
+      <c r="J29" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B30" s="11">
         <v>10</v>
@@ -1860,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="I30" s="9"/>
-      <c r="J30" s="13" t="s">
-        <v>38</v>
+      <c r="J30" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="11">
         <v>10</v>
@@ -1887,7 +1952,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="11">
         <v>10</v>
@@ -1908,7 +1973,7 @@
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="11">
         <v>10</v>
@@ -1929,7 +1994,7 @@
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" s="11">
         <v>10</v>
@@ -1940,7 +2005,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="8">
-        <f>SUM(C34:G34)</f>
+        <f t="shared" ref="H34:H65" si="0">SUM(C34:G34)</f>
         <v>0</v>
       </c>
       <c r="I34" s="9"/>
@@ -1950,7 +2015,7 @@
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" s="11">
         <v>10</v>
@@ -1961,7 +2026,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="8">
-        <f>SUM(C35:G35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35" s="9"/>
@@ -1971,7 +2036,7 @@
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36" s="11">
         <v>10</v>
@@ -1982,7 +2047,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="8">
-        <f>SUM(C36:G36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I36" s="9"/>
@@ -1992,7 +2057,7 @@
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" s="11">
         <v>10</v>
@@ -2003,7 +2068,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="8">
-        <f>SUM(C37:G37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I37" s="9"/>
@@ -2013,7 +2078,7 @@
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="11">
         <v>10</v>
@@ -2024,7 +2089,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="8">
-        <f>SUM(C38:G38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I38" s="9"/>
@@ -2034,7 +2099,7 @@
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B39" s="11">
         <v>10</v>
@@ -2045,17 +2110,17 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="8">
-        <f>SUM(C39:G39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B40" s="11">
         <v>10</v>
@@ -2066,17 +2131,17 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="8">
-        <f>SUM(C40:G40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" s="11">
         <v>10</v>
@@ -2087,7 +2152,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="8">
-        <f>SUM(C41:G41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41" s="9"/>
@@ -2097,7 +2162,7 @@
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" s="11">
         <v>10</v>
@@ -2108,7 +2173,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="8">
-        <f>SUM(C42:G42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I42" s="9"/>
@@ -2118,7 +2183,7 @@
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" s="11">
         <v>10</v>
@@ -2129,7 +2194,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="8">
-        <f>SUM(C43:G43)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43" s="9"/>
@@ -2139,7 +2204,7 @@
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" s="11">
         <v>10</v>
@@ -2150,7 +2215,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="8">
-        <f>SUM(C44:G44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I44" s="9"/>
@@ -2160,7 +2225,7 @@
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" s="11">
         <v>10</v>
@@ -2171,7 +2236,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="8">
-        <f>SUM(C45:G45)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I45" s="9"/>
@@ -2181,7 +2246,7 @@
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B46" s="11">
         <v>10</v>
@@ -2192,7 +2257,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="8">
-        <f>SUM(C46:G46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I46" s="9"/>
@@ -2202,7 +2267,7 @@
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" s="11">
         <v>10</v>
@@ -2213,7 +2278,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="8">
-        <f>SUM(C47:G47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I47" s="9"/>
@@ -2223,7 +2288,7 @@
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48" s="11">
         <v>10</v>
@@ -2234,7 +2299,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="8">
-        <f>SUM(C48:G48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I48" s="9"/>
@@ -2244,7 +2309,7 @@
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" s="11">
         <v>10</v>
@@ -2255,7 +2320,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="8">
-        <f>SUM(C49:G49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I49" s="9"/>
@@ -2265,10 +2330,10 @@
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B50" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2276,20 +2341,20 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="8">
-        <f>SUM(C50:G50)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I50" s="9"/>
-      <c r="J50" s="14" t="s">
-        <v>60</v>
+      <c r="J50" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B51" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2297,17 +2362,17 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="8">
-        <f>SUM(C51:G51)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I51" s="9"/>
-      <c r="J51" s="14" t="s">
-        <v>61</v>
+      <c r="J51" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B52" s="11">
         <v>9</v>
@@ -2318,7 +2383,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="8">
-        <f>SUM(C52:G52)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I52" s="9"/>
@@ -2328,7 +2393,7 @@
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B53" s="11">
         <v>9</v>
@@ -2339,7 +2404,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="8">
-        <f>SUM(C53:G53)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I53" s="9"/>
@@ -2349,7 +2414,7 @@
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B54" s="11">
         <v>9</v>
@@ -2360,7 +2425,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="8">
-        <f>SUM(C54:G54)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I54" s="9"/>
@@ -2370,7 +2435,7 @@
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B55" s="11">
         <v>9</v>
@@ -2381,7 +2446,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="8">
-        <f>SUM(C55:G55)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I55" s="9"/>
@@ -2391,7 +2456,7 @@
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" s="11">
         <v>9</v>
@@ -2402,7 +2467,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="8">
-        <f>SUM(C56:G56)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I56" s="9"/>
@@ -2412,7 +2477,7 @@
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B57" s="11">
         <v>9</v>
@@ -2423,7 +2488,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="8">
-        <f>SUM(C57:G57)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I57" s="9"/>
@@ -2433,7 +2498,7 @@
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B58" s="11">
         <v>9</v>
@@ -2444,7 +2509,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="8">
-        <f>SUM(C58:G58)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I58" s="9"/>
@@ -2454,7 +2519,7 @@
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B59" s="11">
         <v>9</v>
@@ -2465,7 +2530,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="8">
-        <f>SUM(C59:G59)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I59" s="9"/>
@@ -2475,7 +2540,7 @@
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60" s="11">
         <v>9</v>
@@ -2486,7 +2551,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="8">
-        <f>SUM(C60:G60)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I60" s="9"/>
@@ -2496,7 +2561,7 @@
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" s="11">
         <v>9</v>
@@ -2507,7 +2572,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="8">
-        <f>SUM(C61:G61)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I61" s="9"/>
@@ -2517,7 +2582,7 @@
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="11">
         <v>9</v>
@@ -2528,7 +2593,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="8">
-        <f>SUM(C62:G62)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I62" s="9"/>
@@ -2538,7 +2603,7 @@
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="11">
         <v>9</v>
@@ -2549,7 +2614,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="8">
-        <f>SUM(C63:G63)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I63" s="9"/>
@@ -2559,10 +2624,10 @@
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -2570,7 +2635,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="8">
-        <f>SUM(C64:G64)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I64" s="9"/>
@@ -2580,10 +2645,10 @@
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B65" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -2591,7 +2656,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="8">
-        <f>SUM(C65:G65)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I65" s="9"/>
@@ -2601,7 +2666,7 @@
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B66" s="11">
         <v>10</v>
@@ -2612,7 +2677,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="8">
-        <f>SUM(C66:G66)</f>
+        <f t="shared" ref="H66:H97" si="1">SUM(C66:G66)</f>
         <v>0</v>
       </c>
       <c r="I66" s="9"/>
@@ -2622,7 +2687,7 @@
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B67" s="11">
         <v>10</v>
@@ -2633,7 +2698,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="8">
-        <f>SUM(C67:G67)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I67" s="9"/>
@@ -2643,7 +2708,7 @@
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B68" s="11">
         <v>10</v>
@@ -2654,7 +2719,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="8">
-        <f>SUM(C68:G68)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I68" s="9"/>
@@ -2664,7 +2729,7 @@
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B69" s="11">
         <v>10</v>
@@ -2675,7 +2740,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="8">
-        <f>SUM(C69:G69)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I69" s="9"/>
@@ -2685,7 +2750,7 @@
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B70" s="11">
         <v>10</v>
@@ -2696,7 +2761,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="8">
-        <f>SUM(C70:G70)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I70" s="9"/>
@@ -2706,7 +2771,7 @@
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B71" s="11">
         <v>10</v>
@@ -2717,7 +2782,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="8">
-        <f>SUM(C71:G71)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I71" s="9"/>
@@ -2727,7 +2792,7 @@
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B72" s="11">
         <v>10</v>
@@ -2738,17 +2803,16 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="8">
-        <f>SUM(C72:G72)</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="9"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J72" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B73" s="11">
         <v>10</v>
@@ -2759,17 +2823,16 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="8">
-        <f>SUM(C73:G73)</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="9"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J73" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B74" s="11">
         <v>10</v>
@@ -2780,7 +2843,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="8">
-        <f>SUM(C74:G74)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J74" s="13" t="s">
@@ -2789,7 +2852,7 @@
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B75" s="11">
         <v>10</v>
@@ -2800,7 +2863,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="8">
-        <f>SUM(C75:G75)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J75" s="13" t="s">
@@ -2809,7 +2872,7 @@
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B76" s="11">
         <v>10</v>
@@ -2820,7 +2883,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="8">
-        <f>SUM(C76:G76)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J76" s="13" t="s">
@@ -2829,7 +2892,7 @@
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B77" s="11">
         <v>10</v>
@@ -2840,7 +2903,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="8">
-        <f>SUM(C77:G77)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J77" s="13" t="s">
@@ -2849,7 +2912,7 @@
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B78" s="11">
         <v>10</v>
@@ -2860,7 +2923,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="8">
-        <f>SUM(C78:G78)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J78" s="13" t="s">
@@ -2869,7 +2932,7 @@
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B79" s="11">
         <v>10</v>
@@ -2880,7 +2943,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="8">
-        <f>SUM(C79:G79)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J79" s="13" t="s">
@@ -2889,7 +2952,7 @@
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B80" s="11">
         <v>10</v>
@@ -2900,7 +2963,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="8">
-        <f>SUM(C80:G80)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J80" s="13" t="s">
@@ -2909,7 +2972,7 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B81" s="11">
         <v>10</v>
@@ -2920,7 +2983,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="8">
-        <f>SUM(C81:G81)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J81" s="13" t="s">
@@ -2929,7 +2992,7 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B82" s="11">
         <v>10</v>
@@ -2940,7 +3003,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="8">
-        <f>SUM(C82:G82)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J82" s="13" t="s">
@@ -2949,7 +3012,7 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B83" s="11">
         <v>10</v>
@@ -2960,7 +3023,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="8">
-        <f>SUM(C83:G83)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J83" s="13" t="s">
@@ -2969,7 +3032,7 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B84" s="11">
         <v>10</v>
@@ -2980,7 +3043,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="8">
-        <f>SUM(C84:G84)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J84" s="13" t="s">
@@ -2989,7 +3052,7 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B85" s="11">
         <v>10</v>
@@ -3000,7 +3063,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="8">
-        <f>SUM(C85:G85)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J85" s="13" t="s">
@@ -3009,7 +3072,7 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B86" s="11">
         <v>10</v>
@@ -3020,7 +3083,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="8">
-        <f>SUM(C86:G86)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J86" s="13" t="s">
@@ -3029,7 +3092,7 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B87" s="11">
         <v>10</v>
@@ -3040,7 +3103,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="8">
-        <f>SUM(C87:G87)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J87" s="13" t="s">
@@ -3049,7 +3112,7 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B88" s="11">
         <v>10</v>
@@ -3060,16 +3123,16 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="8">
-        <f>SUM(C88:G88)</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="13" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B89" s="11">
         <v>10</v>
@@ -3080,16 +3143,16 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="8">
-        <f>SUM(C89:G89)</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="13" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B90" s="11">
         <v>10</v>
@@ -3100,7 +3163,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="8">
-        <f>SUM(C90:G90)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J90" s="14" t="s">
@@ -3109,7 +3172,7 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B91" s="11">
         <v>10</v>
@@ -3120,7 +3183,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="8">
-        <f>SUM(C91:G91)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J91" s="14" t="s">
@@ -3129,7 +3192,7 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B92" s="11">
         <v>10</v>
@@ -3140,7 +3203,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="8">
-        <f>SUM(C92:G92)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J92" s="14" t="s">
@@ -3149,10 +3212,10 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="B93" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -3160,19 +3223,19 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="8">
-        <f>SUM(C93:G93)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="B94" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -3180,16 +3243,16 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="8">
-        <f>SUM(C94:G94)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J94" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B95" s="11">
         <v>9</v>
@@ -3200,7 +3263,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="8">
-        <f>SUM(C95:G95)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J95" s="14" t="s">
@@ -3209,7 +3272,7 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B96" s="11">
         <v>9</v>
@@ -3220,7 +3283,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="8">
-        <f>SUM(C96:G96)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J96" s="14" t="s">
@@ -3229,10 +3292,10 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B97" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -3240,7 +3303,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="8">
-        <f>SUM(C97:G97)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J97" s="14" t="s">
@@ -3249,10 +3312,10 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B98" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -3260,7 +3323,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="8">
-        <f>SUM(C98:G98)</f>
+        <f t="shared" ref="H98:H127" si="2">SUM(C98:G98)</f>
         <v>0</v>
       </c>
       <c r="J98" s="14" t="s">
@@ -3269,7 +3332,7 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B99" s="11">
         <v>10</v>
@@ -3280,7 +3343,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="8">
-        <f>SUM(C99:G99)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J99" s="14" t="s">
@@ -3289,7 +3352,7 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B100" s="11">
         <v>10</v>
@@ -3300,16 +3363,16 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="8">
-        <f>SUM(C100:G100)</f>
-        <v>0</v>
-      </c>
-      <c r="J100" s="14" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B101" s="11">
         <v>10</v>
@@ -3320,16 +3383,16 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="8">
-        <f>SUM(C101:G101)</f>
-        <v>0</v>
-      </c>
-      <c r="J101" s="14" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B102" s="11">
         <v>10</v>
@@ -3340,7 +3403,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="8">
-        <f>SUM(C102:G102)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J102" s="13" t="s">
@@ -3349,7 +3412,7 @@
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B103" s="11">
         <v>10</v>
@@ -3360,7 +3423,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="8">
-        <f>SUM(C103:G103)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J103" s="13" t="s">
@@ -3369,7 +3432,7 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B104" s="11">
         <v>10</v>
@@ -3380,7 +3443,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="8">
-        <f>SUM(C104:G104)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J104" s="13" t="s">
@@ -3389,7 +3452,7 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B105" s="11">
         <v>10</v>
@@ -3400,7 +3463,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="8">
-        <f>SUM(C105:G105)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J105" s="13" t="s">
@@ -3409,7 +3472,7 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106" s="11">
         <v>10</v>
@@ -3420,7 +3483,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="8">
-        <f>SUM(C106:G106)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J106" s="13" t="s">
@@ -3429,7 +3492,7 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B107" s="11">
         <v>10</v>
@@ -3440,7 +3503,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="8">
-        <f>SUM(C107:G107)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J107" s="13" t="s">
@@ -3449,7 +3512,7 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108" s="11">
         <v>10</v>
@@ -3460,7 +3523,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="8">
-        <f>SUM(C108:G108)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J108" s="13" t="s">
@@ -3469,7 +3532,7 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B109" s="11">
         <v>10</v>
@@ -3480,7 +3543,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="8">
-        <f>SUM(C109:G109)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J109" s="13" t="s">
@@ -3489,7 +3552,7 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B110" s="11">
         <v>10</v>
@@ -3500,7 +3563,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="8">
-        <f>SUM(C110:G110)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J110" s="13" t="s">
@@ -3509,7 +3572,7 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B111" s="11">
         <v>10</v>
@@ -3520,7 +3583,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="8">
-        <f>SUM(C111:G111)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J111" s="13" t="s">
@@ -3529,7 +3592,7 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B112" s="11">
         <v>10</v>
@@ -3540,7 +3603,7 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="8">
-        <f>SUM(C112:G112)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J112" s="13" t="s">
@@ -3549,7 +3612,7 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B113" s="11">
         <v>10</v>
@@ -3560,7 +3623,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="8">
-        <f>SUM(C113:G113)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J113" s="13" t="s">
@@ -3569,7 +3632,7 @@
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B114" s="11">
         <v>10</v>
@@ -3580,7 +3643,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="8">
-        <f>SUM(C114:G114)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J114" s="13" t="s">
@@ -3589,7 +3652,7 @@
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B115" s="11">
         <v>10</v>
@@ -3600,7 +3663,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="8">
-        <f>SUM(C115:G115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J115" s="13" t="s">
@@ -3609,7 +3672,7 @@
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B116" s="11">
         <v>10</v>
@@ -3620,7 +3683,7 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="8">
-        <f>SUM(C116:G116)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J116" s="13" t="s">
@@ -3629,7 +3692,7 @@
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B117" s="11">
         <v>10</v>
@@ -3640,7 +3703,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="8">
-        <f>SUM(C117:G117)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J117" s="13" t="s">
@@ -3649,10 +3712,10 @@
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B118" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -3663,16 +3726,16 @@
         <f>SUM(C118:G118)</f>
         <v>0</v>
       </c>
-      <c r="J118" s="13" t="s">
-        <v>130</v>
+      <c r="J118" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B119" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -3683,16 +3746,16 @@
         <f>SUM(C119:G119)</f>
         <v>0</v>
       </c>
-      <c r="J119" s="13" t="s">
-        <v>131</v>
+      <c r="J119" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B120" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -3704,15 +3767,15 @@
         <v>0</v>
       </c>
       <c r="J120" s="14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B121" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -3724,15 +3787,15 @@
         <v>0</v>
       </c>
       <c r="J121" s="14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B122" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -3744,12 +3807,12 @@
         <v>0</v>
       </c>
       <c r="J122" s="14" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B123" s="11">
         <v>10</v>
@@ -3760,16 +3823,16 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="8">
-        <f>SUM(C123:G123)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J123" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B124" s="11">
         <v>10</v>
@@ -3780,49 +3843,76 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="8">
-        <f>SUM(C124:G124)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J124" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="10"/>
-      <c r="B125" s="11"/>
+      <c r="A125" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125" s="11">
+        <v>10</v>
+      </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
-      <c r="H125" s="8"/>
-      <c r="J125" s="13"/>
+      <c r="H125" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="14" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="10"/>
-      <c r="B126" s="11"/>
+      <c r="A126" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="11">
+        <v>10</v>
+      </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
-      <c r="H126" s="8"/>
-      <c r="J126" s="13"/>
+      <c r="H126" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="10"/>
-      <c r="B127" s="11"/>
+      <c r="A127" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="11">
+        <v>10</v>
+      </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
-      <c r="H127" s="8"/>
-      <c r="J127" s="13"/>
+      <c r="H127" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="14" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
-      <c r="B128" s="12"/>
+      <c r="B128" s="11"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -3833,7 +3923,7 @@
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
-      <c r="B129" s="12"/>
+      <c r="B129" s="11"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -3844,7 +3934,7 @@
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
-      <c r="B130" s="12"/>
+      <c r="B130" s="11"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -3855,7 +3945,7 @@
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
-      <c r="B131" s="11"/>
+      <c r="B131" s="12"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -3866,7 +3956,7 @@
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
-      <c r="B132" s="11"/>
+      <c r="B132" s="12"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -3877,7 +3967,7 @@
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
-      <c r="B133" s="11"/>
+      <c r="B133" s="12"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -3932,7 +4022,7 @@
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
-      <c r="B138" s="12"/>
+      <c r="B138" s="11"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -3943,7 +4033,7 @@
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
-      <c r="B139" s="12"/>
+      <c r="B139" s="11"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -3965,7 +4055,7 @@
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
-      <c r="B141" s="11"/>
+      <c r="B141" s="12"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -3976,7 +4066,7 @@
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
-      <c r="B142" s="11"/>
+      <c r="B142" s="12"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -3998,7 +4088,7 @@
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
-      <c r="B144" s="12"/>
+      <c r="B144" s="11"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4009,7 +4099,7 @@
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
-      <c r="B145" s="12"/>
+      <c r="B145" s="11"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4031,7 +4121,7 @@
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
-      <c r="B147" s="11"/>
+      <c r="B147" s="12"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -4042,7 +4132,7 @@
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
-      <c r="B148" s="11"/>
+      <c r="B148" s="12"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -4097,7 +4187,7 @@
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
-      <c r="B153" s="12"/>
+      <c r="B153" s="11"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -4108,7 +4198,7 @@
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
-      <c r="B154" s="12"/>
+      <c r="B154" s="11"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -4130,7 +4220,7 @@
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
-      <c r="B156" s="11"/>
+      <c r="B156" s="12"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -4141,7 +4231,7 @@
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
-      <c r="B157" s="11"/>
+      <c r="B157" s="12"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -4163,7 +4253,7 @@
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="B159" s="12"/>
+      <c r="B159" s="11"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -4196,7 +4286,7 @@
     </row>
     <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
-      <c r="B162" s="11"/>
+      <c r="B162" s="12"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -4218,7 +4308,7 @@
     </row>
     <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
-      <c r="B164" s="12"/>
+      <c r="B164" s="11"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -4251,7 +4341,7 @@
     </row>
     <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
-      <c r="B167" s="11"/>
+      <c r="B167" s="12"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -4273,7 +4363,7 @@
     </row>
     <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
-      <c r="B169" s="12"/>
+      <c r="B169" s="11"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -4284,7 +4374,7 @@
     </row>
     <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
-      <c r="B170" s="12"/>
+      <c r="B170" s="11"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -4306,7 +4396,7 @@
     </row>
     <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
-      <c r="B172" s="11"/>
+      <c r="B172" s="12"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -4317,7 +4407,7 @@
     </row>
     <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
-      <c r="B173" s="11"/>
+      <c r="B173" s="12"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -4338,30 +4428,39 @@
       <c r="J174" s="13"/>
     </row>
     <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="10"/>
+      <c r="B175" s="11"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="8"/>
+      <c r="J175" s="13"/>
     </row>
     <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="10"/>
+      <c r="B176" s="11"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="8"/>
-    </row>
-    <row r="177" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J176" s="13"/>
+    </row>
+    <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="10"/>
+      <c r="B177" s="11"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="8"/>
-    </row>
-    <row r="178" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J177" s="13"/>
+    </row>
+    <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -4369,7 +4468,7 @@
       <c r="G178" s="5"/>
       <c r="H178" s="8"/>
     </row>
-    <row r="179" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -4377,13 +4476,37 @@
       <c r="G179" s="5"/>
       <c r="H179" s="8"/>
     </row>
-    <row r="180" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="8"/>
+    </row>
+    <row r="181" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="8"/>
+    </row>
+    <row r="182" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="8"/>
+    </row>
+    <row r="183" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4398,133 +4521,43 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 A1 I24:I26">
-    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
+  <conditionalFormatting sqref="J128">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+  <conditionalFormatting sqref="J147">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+  <conditionalFormatting sqref="J136">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+  <conditionalFormatting sqref="J138">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+  <conditionalFormatting sqref="J162:J167">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
+  <conditionalFormatting sqref="J151">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
+  <conditionalFormatting sqref="J153">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J125">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J133">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J135">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J159:J164">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J148">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J173">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I12">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I9">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J81:J87">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J81:J83">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J88">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J88">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J89">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J89">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J114:J119">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J105">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="J176">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
